--- a/Data/end of day surveys_likert.xlsx
+++ b/Data/end of day surveys_likert.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DDB9D3-30D0-8943-B689-44F2666B9BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD213BF6-B09C-0344-9BE7-3FC9E43686A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="18300" windowHeight="15500" activeTab="1" xr2:uid="{11FFEB6C-3491-8E42-A6F2-76DCC35FCCFD}"/>
+    <workbookView xWindow="5060" yWindow="500" windowWidth="20540" windowHeight="15500" xr2:uid="{11FFEB6C-3491-8E42-A6F2-76DCC35FCCFD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Likert Data" sheetId="13" r:id="rId1"/>
-    <sheet name="KD Stats Test" sheetId="12" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId10"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId11"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId12"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId13"/>
+    <sheet name="Likert 2" sheetId="15" r:id="rId1"/>
+    <sheet name="Likert Data" sheetId="13" r:id="rId2"/>
+    <sheet name="comments" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId12"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="139">
   <si>
     <t>Motivation_1</t>
   </si>
@@ -457,20 +457,20 @@
     <t>I enjoyed completing today's camp activities</t>
   </si>
   <si>
-    <t>Enjoy</t>
+    <t>Item</t>
   </si>
   <si>
-    <t>Interesting</t>
+    <t>I want to do more activities similar to today's camp activities</t>
   </si>
   <si>
-    <t>Item</t>
+    <t xml:space="preserve">I felt successful after completing today's camp activites </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,14 +481,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -525,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -536,51 +528,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1618,22 +1575,22 @@
             <c:numRef>
               <c:f>Sheet3!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.72340425531914898</c:v>
+                  <c:v>72.340425531914903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19503546099290781</c:v>
+                  <c:v>19.50354609929078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9645390070921988E-2</c:v>
+                  <c:v>4.9645390070921991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7730496453900711E-2</c:v>
+                  <c:v>1.773049645390071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4184397163120567E-2</c:v>
+                  <c:v>1.4184397163120568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2232,22 +2189,22 @@
             <c:numRef>
               <c:f>Sheet5!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.36170212765957449</c:v>
+                  <c:v>36.170212765957451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28368794326241137</c:v>
+                  <c:v>28.368794326241137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26241134751773049</c:v>
+                  <c:v>26.24113475177305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4822695035460994E-2</c:v>
+                  <c:v>2.4822695035460995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7375886524822695E-2</c:v>
+                  <c:v>6.7375886524822697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2539,22 +2496,22 @@
             <c:numRef>
               <c:f>Sheet6!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.46453900709219859</c:v>
+                  <c:v>46.453900709219859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28723404255319152</c:v>
+                  <c:v>28.723404255319153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18794326241134751</c:v>
+                  <c:v>18.794326241134751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8368794326241134E-2</c:v>
+                  <c:v>2.8368794326241136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1914893617021274E-2</c:v>
+                  <c:v>3.1914893617021276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,22 +2803,22 @@
             <c:numRef>
               <c:f>Sheet7!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.53736654804270467</c:v>
+                  <c:v>53.736654804270465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20996441281138789</c:v>
+                  <c:v>20.996441281138789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17793594306049823</c:v>
+                  <c:v>17.793594306049823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9822064056939501E-2</c:v>
+                  <c:v>4.9822064056939501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.491103202846975E-2</c:v>
+                  <c:v>2.4911032028469751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,22 +3110,22 @@
             <c:numRef>
               <c:f>Sheet8!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.58156028368794321</c:v>
+                  <c:v>58.156028368794324</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27659574468085107</c:v>
+                  <c:v>27.659574468085108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9290780141843976E-2</c:v>
+                  <c:v>9.9290780141843982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4822695035460994E-2</c:v>
+                  <c:v>2.4822695035460995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7730496453900711E-2</c:v>
+                  <c:v>1.773049645390071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3460,22 +3417,22 @@
             <c:numRef>
               <c:f>Sheet9!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.62411347517730498</c:v>
+                  <c:v>62.411347517730498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20921985815602837</c:v>
+                  <c:v>20.921985815602838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1099290780141844</c:v>
+                  <c:v>10.99290780141844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4822695035460994E-2</c:v>
+                  <c:v>2.4822695035460995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1914893617021274E-2</c:v>
+                  <c:v>3.1914893617021276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9491,20 +9448,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02DF6571-03F9-F649-8B96-1681C2EEC91B}" name="Table1" displayName="Table1" ref="A1:B283" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:B283" xr:uid="{02DF6571-03F9-F649-8B96-1681C2EEC91B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B283">
-    <sortCondition ref="B1:B283"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{61475A09-65EE-8D40-A06E-BE690941C538}" name="Enjoy" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{28CD7ED7-123C-9D41-9C64-6D5E6103BC8D}" name="Interesting" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9801,26 +9744,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860F5386-11B5-314F-A2AE-4317D306CC25}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B0C6B7-7D42-A24A-AC55-0EBEC1AA97BE}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>138</v>
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -9838,72 +9781,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>1.4184397163120568</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.70921985815602839</v>
-      </c>
-      <c r="D2" s="9">
-        <v>4.9645390070921991</v>
-      </c>
-      <c r="E2" s="9">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <v>6.7375886524822697</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2.4822695035460995</v>
+      </c>
+      <c r="D2" s="6">
+        <v>26.24113475177305</v>
+      </c>
+      <c r="E2" s="6">
+        <v>28.368794326241137</v>
+      </c>
+      <c r="F2" s="6">
+        <v>36.170212765957451</v>
+      </c>
+      <c r="H2" s="6">
+        <f>SUM(E2:F2)</f>
+        <v>64.539007092198588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2.8368794326241136</v>
+      </c>
+      <c r="D3" s="6">
+        <v>18.794326241134751</v>
+      </c>
+      <c r="E3" s="6">
+        <v>28.723404255319153</v>
+      </c>
+      <c r="F3" s="6">
+        <v>46.453900709219859</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H5" si="0">SUM(E3:F3)</f>
+        <v>75.177304964539019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.4911032028469751</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4.9822064056939501</v>
+      </c>
+      <c r="D4" s="6">
+        <v>17.793594306049823</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20.996441281138789</v>
+      </c>
+      <c r="F4" s="6">
+        <v>53.736654804270465</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>74.733096085409258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.773049645390071</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2.4822695035460995</v>
+      </c>
+      <c r="D5" s="6">
+        <v>9.9290780141843982</v>
+      </c>
+      <c r="E5" s="6">
         <v>27.659574468085108</v>
       </c>
-      <c r="F2" s="9">
-        <v>65.248226950354621</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1.4184397163120568</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1.4184397163120568</v>
-      </c>
-      <c r="D3" s="9">
-        <v>3.9007092198581561</v>
-      </c>
-      <c r="E3" s="9">
-        <v>23.049645390070921</v>
-      </c>
-      <c r="F3" s="9">
-        <v>70.212765957446805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="9">
-        <v>23.487544483985765</v>
-      </c>
-      <c r="C4" s="9">
-        <v>22.419928825622776</v>
-      </c>
-      <c r="D4" s="9">
-        <v>22.064056939501782</v>
-      </c>
-      <c r="E4" s="9">
-        <v>25.978647686832741</v>
-      </c>
-      <c r="F4" s="9">
-        <v>6.0498220640569391</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="F5" s="6">
+        <v>58.156028368794324</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>85.815602836879435</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9911,10 +9883,1508 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79047070-2632-4740-BE92-A40649D5BF64}">
+  <dimension ref="A1:E284"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(A3:A284,"Strongly agree")</f>
+        <v>151</v>
+      </c>
+      <c r="E4" s="8">
+        <f>D4/$D$9*100</f>
+        <v>53.736654804270465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(A3:A284,"Somewhat agree")</f>
+        <v>59</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
+        <v>20.996441281138789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
+        <v>50</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>17.793594306049823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
+        <v>14</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9822064056939501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(A3:A281,"Strongly disagree")</f>
+        <v>7</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4911032028469751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D4:D8)</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073F7A9-FE53-6940-8A17-0994AB3F95E6}">
   <dimension ref="A1:E284"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
@@ -9949,9 +11419,9 @@
         <f>COUNTIF(A3:A284,"Strongly agree")</f>
         <v>164</v>
       </c>
-      <c r="E4" s="5">
-        <f>D4/D9</f>
-        <v>0.58156028368794321</v>
+      <c r="E4" s="8">
+        <f>D4/$D$9*100</f>
+        <v>58.156028368794324</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9965,9 +11435,9 @@
         <f>COUNTIF(A3:A284,"Somewhat agree")</f>
         <v>78</v>
       </c>
-      <c r="E5" s="5">
-        <f>D5/D9</f>
-        <v>0.27659574468085107</v>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
+        <v>27.659574468085108</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9981,9 +11451,9 @@
         <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
         <v>28</v>
       </c>
-      <c r="E6" s="5">
-        <f>D6/D9</f>
-        <v>9.9290780141843976E-2</v>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>9.9290780141843982</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -9997,9 +11467,9 @@
         <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
         <v>7</v>
       </c>
-      <c r="E7" s="5">
-        <f>D7/D9</f>
-        <v>2.4822695035460994E-2</v>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4822695035460995</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -10013,9 +11483,9 @@
         <f>COUNTIF(A3:A281,"Strongly disagree")</f>
         <v>5</v>
       </c>
-      <c r="E8" s="5">
-        <f>D8/D9</f>
-        <v>1.7730496453900711E-2</v>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.773049645390071</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
@@ -11408,7 +12878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD17039-712D-6540-85AE-0DC9F79EA682}">
   <dimension ref="A1:E284"/>
   <sheetViews>
@@ -11447,9 +12917,9 @@
         <f>COUNTIF(A3:A284,"Strongly agree")</f>
         <v>176</v>
       </c>
-      <c r="E4" s="5">
-        <f>D4/D9</f>
-        <v>0.62411347517730498</v>
+      <c r="E4" s="8">
+        <f>D4/$D$9*100</f>
+        <v>62.411347517730498</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -11463,9 +12933,9 @@
         <f>COUNTIF(A3:A284,"Somewhat agree")</f>
         <v>59</v>
       </c>
-      <c r="E5" s="5">
-        <f>D5/D9</f>
-        <v>0.20921985815602837</v>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
+        <v>20.921985815602838</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -11479,9 +12949,9 @@
         <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
         <v>31</v>
       </c>
-      <c r="E6" s="5">
-        <f>D6/D9</f>
-        <v>0.1099290780141844</v>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>10.99290780141844</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -11495,9 +12965,9 @@
         <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
         <v>7</v>
       </c>
-      <c r="E7" s="5">
-        <f>D7/D9</f>
-        <v>2.4822695035460994E-2</v>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4822695035460995</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -11511,9 +12981,9 @@
         <f>COUNTIF(A3:A281,"Strongly disagree")</f>
         <v>9</v>
       </c>
-      <c r="E8" s="5">
-        <f>D8/D9</f>
-        <v>3.1914893617021274E-2</v>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>3.1914893617021276</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -12906,7 +14376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDF1D2D-E25D-F044-8F70-9D39B457F2A0}">
   <dimension ref="A1:E284"/>
   <sheetViews>
@@ -14382,7 +15852,170 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860F5386-11B5-314F-A2AE-4317D306CC25}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.4184397163120568</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.70921985815602839</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4.9645390070921991</v>
+      </c>
+      <c r="E2" s="6">
+        <v>27.659574468085108</v>
+      </c>
+      <c r="F2" s="6">
+        <v>65.248226950354621</v>
+      </c>
+      <c r="H2" s="6">
+        <f>SUM(E2:F2)</f>
+        <v>92.907801418439732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1.4184397163120568</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.4184397163120568</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3.9007092198581561</v>
+      </c>
+      <c r="E3" s="6">
+        <v>23.049645390070921</v>
+      </c>
+      <c r="F3" s="6">
+        <v>70.212765957446805</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H6" si="0">SUM(E3:F3)</f>
+        <v>93.262411347517727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6">
+        <v>23.487544483985765</v>
+      </c>
+      <c r="C4" s="6">
+        <v>22.419928825622776</v>
+      </c>
+      <c r="D4" s="6">
+        <v>22.064056939501782</v>
+      </c>
+      <c r="E4" s="6">
+        <v>25.978647686832741</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6.0498220640569391</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="0"/>
+        <v>32.028469750889677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.4184397163120568</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.773049645390071</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.9645390070921991</v>
+      </c>
+      <c r="E5" s="6">
+        <v>19.50354609929078</v>
+      </c>
+      <c r="F5" s="6">
+        <v>72.340425531914903</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="0"/>
+        <v>91.843971631205676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3.1914893617021276</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2.4822695035460995</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10.99290780141844</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20.921985815602838</v>
+      </c>
+      <c r="F6" s="6">
+        <v>62.411347517730498</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="0"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5135262B-2936-5946-9F20-AA5B94EE5B38}">
   <dimension ref="A1:B282"/>
   <sheetViews>
@@ -15810,2298 +17443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EDF15E-19CA-A341-8C94-E8DCCD9E6C85}">
-  <dimension ref="A1:I283"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>0</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>2</v>
-      </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
-        <v>2</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
-        <v>2</v>
-      </c>
-      <c r="B13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>2</v>
-      </c>
-      <c r="B16" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>2</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>3</v>
-      </c>
-      <c r="B18" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>3</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
-        <v>3</v>
-      </c>
-      <c r="B20" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
-        <v>3</v>
-      </c>
-      <c r="B21" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
-        <v>3</v>
-      </c>
-      <c r="B22" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
-        <v>4</v>
-      </c>
-      <c r="B23" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
-        <v>4</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
-        <v>0</v>
-      </c>
-      <c r="B25" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>2</v>
-      </c>
-      <c r="B27" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
-        <v>3</v>
-      </c>
-      <c r="B28" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
-        <v>3</v>
-      </c>
-      <c r="B29" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
-        <v>3</v>
-      </c>
-      <c r="B30" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
-        <v>3</v>
-      </c>
-      <c r="B31" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
-        <v>3</v>
-      </c>
-      <c r="B32" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
-        <v>3</v>
-      </c>
-      <c r="B33" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
-        <v>3</v>
-      </c>
-      <c r="B34" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
-        <v>3</v>
-      </c>
-      <c r="B35" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
-        <v>3</v>
-      </c>
-      <c r="B36" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
-        <v>3</v>
-      </c>
-      <c r="B37" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
-        <v>3</v>
-      </c>
-      <c r="B38" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>3</v>
-      </c>
-      <c r="B39" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>3</v>
-      </c>
-      <c r="B40" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>3</v>
-      </c>
-      <c r="B41" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>3</v>
-      </c>
-      <c r="B43" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>3</v>
-      </c>
-      <c r="B44" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>3</v>
-      </c>
-      <c r="B45" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
-        <v>3</v>
-      </c>
-      <c r="B46" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
-        <v>3</v>
-      </c>
-      <c r="B47" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
-        <v>3</v>
-      </c>
-      <c r="B48" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
-        <v>3</v>
-      </c>
-      <c r="B49" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
-        <v>3</v>
-      </c>
-      <c r="B50" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
-        <v>3</v>
-      </c>
-      <c r="B51" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
-        <v>3</v>
-      </c>
-      <c r="B52" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
-        <v>3</v>
-      </c>
-      <c r="B53" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
-        <v>3</v>
-      </c>
-      <c r="B54" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
-        <v>3</v>
-      </c>
-      <c r="B55" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
-        <v>3</v>
-      </c>
-      <c r="B56" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
-        <v>3</v>
-      </c>
-      <c r="B57" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
-        <v>3</v>
-      </c>
-      <c r="B58" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
-        <v>3</v>
-      </c>
-      <c r="B59" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
-        <v>3</v>
-      </c>
-      <c r="B60" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
-        <v>3</v>
-      </c>
-      <c r="B61" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
-        <v>3</v>
-      </c>
-      <c r="B62" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
-        <v>3</v>
-      </c>
-      <c r="B63" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
-        <v>3</v>
-      </c>
-      <c r="B64" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
-        <v>3</v>
-      </c>
-      <c r="B65" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
-        <v>3</v>
-      </c>
-      <c r="B66" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
-        <v>3</v>
-      </c>
-      <c r="B67" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
-        <v>3</v>
-      </c>
-      <c r="B68" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
-        <v>4</v>
-      </c>
-      <c r="B69" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
-        <v>4</v>
-      </c>
-      <c r="B70" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
-        <v>4</v>
-      </c>
-      <c r="B71" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
-        <v>4</v>
-      </c>
-      <c r="B72" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
-        <v>4</v>
-      </c>
-      <c r="B73" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="7">
-        <v>4</v>
-      </c>
-      <c r="B74" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="7">
-        <v>4</v>
-      </c>
-      <c r="B75" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="7">
-        <v>4</v>
-      </c>
-      <c r="B76" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="7">
-        <v>4</v>
-      </c>
-      <c r="B77" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="7">
-        <v>4</v>
-      </c>
-      <c r="B78" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="7">
-        <v>4</v>
-      </c>
-      <c r="B79" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>1</v>
-      </c>
-      <c r="B80" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="7">
-        <v>3</v>
-      </c>
-      <c r="B81" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="7">
-        <v>3</v>
-      </c>
-      <c r="B82" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="7">
-        <v>3</v>
-      </c>
-      <c r="B83" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="7">
-        <v>3</v>
-      </c>
-      <c r="B84" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
-        <v>3</v>
-      </c>
-      <c r="B85" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>3</v>
-      </c>
-      <c r="B86" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
-        <v>3</v>
-      </c>
-      <c r="B87" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>3</v>
-      </c>
-      <c r="B88" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
-        <v>3</v>
-      </c>
-      <c r="B89" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>3</v>
-      </c>
-      <c r="B90" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="7">
-        <v>3</v>
-      </c>
-      <c r="B91" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="7">
-        <v>3</v>
-      </c>
-      <c r="B92" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="7">
-        <v>3</v>
-      </c>
-      <c r="B93" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="7">
-        <v>3</v>
-      </c>
-      <c r="B94" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="7">
-        <v>3</v>
-      </c>
-      <c r="B95" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="7">
-        <v>3</v>
-      </c>
-      <c r="B96" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="7">
-        <v>3</v>
-      </c>
-      <c r="B97" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="7">
-        <v>3</v>
-      </c>
-      <c r="B98" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="7">
-        <v>4</v>
-      </c>
-      <c r="B99" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="7">
-        <v>4</v>
-      </c>
-      <c r="B100" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="7">
-        <v>4</v>
-      </c>
-      <c r="B101" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="7">
-        <v>4</v>
-      </c>
-      <c r="B102" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="7">
-        <v>4</v>
-      </c>
-      <c r="B103" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="7">
-        <v>4</v>
-      </c>
-      <c r="B104" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="7">
-        <v>4</v>
-      </c>
-      <c r="B105" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="7">
-        <v>4</v>
-      </c>
-      <c r="B106" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="7">
-        <v>4</v>
-      </c>
-      <c r="B107" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="7">
-        <v>4</v>
-      </c>
-      <c r="B108" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="7">
-        <v>4</v>
-      </c>
-      <c r="B109" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="7">
-        <v>4</v>
-      </c>
-      <c r="B110" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="7">
-        <v>4</v>
-      </c>
-      <c r="B111" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="7">
-        <v>4</v>
-      </c>
-      <c r="B112" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="7">
-        <v>4</v>
-      </c>
-      <c r="B113" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="7">
-        <v>4</v>
-      </c>
-      <c r="B114" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="7">
-        <v>4</v>
-      </c>
-      <c r="B115" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="7">
-        <v>4</v>
-      </c>
-      <c r="B116" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="7">
-        <v>4</v>
-      </c>
-      <c r="B117" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="7">
-        <v>4</v>
-      </c>
-      <c r="B118" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="7">
-        <v>4</v>
-      </c>
-      <c r="B119" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="7">
-        <v>4</v>
-      </c>
-      <c r="B120" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="7">
-        <v>4</v>
-      </c>
-      <c r="B121" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="7">
-        <v>4</v>
-      </c>
-      <c r="B122" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="7">
-        <v>4</v>
-      </c>
-      <c r="B123" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="7">
-        <v>4</v>
-      </c>
-      <c r="B124" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="7">
-        <v>4</v>
-      </c>
-      <c r="B125" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="7">
-        <v>4</v>
-      </c>
-      <c r="B126" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="7">
-        <v>4</v>
-      </c>
-      <c r="B127" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="7">
-        <v>4</v>
-      </c>
-      <c r="B128" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="7">
-        <v>4</v>
-      </c>
-      <c r="B129" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="7">
-        <v>4</v>
-      </c>
-      <c r="B130" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="7">
-        <v>4</v>
-      </c>
-      <c r="B131" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="7">
-        <v>4</v>
-      </c>
-      <c r="B132" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="7">
-        <v>4</v>
-      </c>
-      <c r="B133" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="7">
-        <v>4</v>
-      </c>
-      <c r="B134" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="7">
-        <v>4</v>
-      </c>
-      <c r="B135" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="7">
-        <v>4</v>
-      </c>
-      <c r="B136" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="7">
-        <v>4</v>
-      </c>
-      <c r="B137" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="7">
-        <v>4</v>
-      </c>
-      <c r="B138" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="7">
-        <v>4</v>
-      </c>
-      <c r="B139" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="7">
-        <v>4</v>
-      </c>
-      <c r="B140" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="7">
-        <v>4</v>
-      </c>
-      <c r="B141" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="7">
-        <v>4</v>
-      </c>
-      <c r="B142" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="7">
-        <v>4</v>
-      </c>
-      <c r="B143" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="7">
-        <v>4</v>
-      </c>
-      <c r="B144" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="7">
-        <v>4</v>
-      </c>
-      <c r="B145" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="7">
-        <v>4</v>
-      </c>
-      <c r="B146" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="7">
-        <v>4</v>
-      </c>
-      <c r="B147" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="7">
-        <v>4</v>
-      </c>
-      <c r="B148" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="7">
-        <v>4</v>
-      </c>
-      <c r="B149" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="7">
-        <v>4</v>
-      </c>
-      <c r="B150" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="7">
-        <v>4</v>
-      </c>
-      <c r="B151" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="7">
-        <v>4</v>
-      </c>
-      <c r="B152" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
-        <v>4</v>
-      </c>
-      <c r="B153" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="7">
-        <v>4</v>
-      </c>
-      <c r="B154" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="7">
-        <v>4</v>
-      </c>
-      <c r="B155" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="7">
-        <v>4</v>
-      </c>
-      <c r="B156" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="7">
-        <v>4</v>
-      </c>
-      <c r="B157" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="7">
-        <v>4</v>
-      </c>
-      <c r="B158" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="7">
-        <v>4</v>
-      </c>
-      <c r="B159" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="7">
-        <v>4</v>
-      </c>
-      <c r="B160" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="7">
-        <v>4</v>
-      </c>
-      <c r="B161" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="7">
-        <v>4</v>
-      </c>
-      <c r="B162" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="7">
-        <v>4</v>
-      </c>
-      <c r="B163" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="7">
-        <v>4</v>
-      </c>
-      <c r="B164" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="7">
-        <v>4</v>
-      </c>
-      <c r="B165" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="7">
-        <v>4</v>
-      </c>
-      <c r="B166" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="7">
-        <v>4</v>
-      </c>
-      <c r="B167" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="7">
-        <v>4</v>
-      </c>
-      <c r="B168" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="7">
-        <v>4</v>
-      </c>
-      <c r="B169" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="7">
-        <v>4</v>
-      </c>
-      <c r="B170" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="7">
-        <v>4</v>
-      </c>
-      <c r="B171" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="7">
-        <v>4</v>
-      </c>
-      <c r="B172" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="7">
-        <v>4</v>
-      </c>
-      <c r="B173" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="7">
-        <v>4</v>
-      </c>
-      <c r="B174" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="8">
-        <v>4</v>
-      </c>
-      <c r="B175" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="8">
-        <v>4</v>
-      </c>
-      <c r="B176" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="8">
-        <v>4</v>
-      </c>
-      <c r="B177" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="8">
-        <v>4</v>
-      </c>
-      <c r="B178" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="8">
-        <v>4</v>
-      </c>
-      <c r="B179" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="8">
-        <v>4</v>
-      </c>
-      <c r="B180" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="8">
-        <v>4</v>
-      </c>
-      <c r="B181" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="8">
-        <v>4</v>
-      </c>
-      <c r="B182" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="8">
-        <v>4</v>
-      </c>
-      <c r="B183" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="8">
-        <v>4</v>
-      </c>
-      <c r="B184" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="8">
-        <v>4</v>
-      </c>
-      <c r="B185" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="8">
-        <v>4</v>
-      </c>
-      <c r="B186" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="8">
-        <v>4</v>
-      </c>
-      <c r="B187" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="8">
-        <v>4</v>
-      </c>
-      <c r="B188" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="8">
-        <v>4</v>
-      </c>
-      <c r="B189" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="8">
-        <v>4</v>
-      </c>
-      <c r="B190" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="8">
-        <v>4</v>
-      </c>
-      <c r="B191" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="8">
-        <v>4</v>
-      </c>
-      <c r="B192" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="8">
-        <v>4</v>
-      </c>
-      <c r="B193" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="8">
-        <v>4</v>
-      </c>
-      <c r="B194" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="8">
-        <v>4</v>
-      </c>
-      <c r="B195" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="8">
-        <v>4</v>
-      </c>
-      <c r="B196" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="8">
-        <v>4</v>
-      </c>
-      <c r="B197" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="8">
-        <v>4</v>
-      </c>
-      <c r="B198" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="8">
-        <v>4</v>
-      </c>
-      <c r="B199" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="8">
-        <v>4</v>
-      </c>
-      <c r="B200" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="8">
-        <v>4</v>
-      </c>
-      <c r="B201" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="8">
-        <v>4</v>
-      </c>
-      <c r="B202" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="8">
-        <v>4</v>
-      </c>
-      <c r="B203" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="8">
-        <v>4</v>
-      </c>
-      <c r="B204" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="7">
-        <v>4</v>
-      </c>
-      <c r="B205" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="7">
-        <v>4</v>
-      </c>
-      <c r="B206" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="7">
-        <v>4</v>
-      </c>
-      <c r="B207" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="7">
-        <v>4</v>
-      </c>
-      <c r="B208" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="7">
-        <v>4</v>
-      </c>
-      <c r="B209" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="7">
-        <v>4</v>
-      </c>
-      <c r="B210" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="7">
-        <v>4</v>
-      </c>
-      <c r="B211" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="7">
-        <v>4</v>
-      </c>
-      <c r="B212" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="7">
-        <v>4</v>
-      </c>
-      <c r="B213" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="7">
-        <v>4</v>
-      </c>
-      <c r="B214" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="7">
-        <v>4</v>
-      </c>
-      <c r="B215" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="7">
-        <v>4</v>
-      </c>
-      <c r="B216" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="7">
-        <v>4</v>
-      </c>
-      <c r="B217" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="7">
-        <v>4</v>
-      </c>
-      <c r="B218" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="7">
-        <v>4</v>
-      </c>
-      <c r="B219" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="7">
-        <v>4</v>
-      </c>
-      <c r="B220" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="7">
-        <v>4</v>
-      </c>
-      <c r="B221" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="7">
-        <v>4</v>
-      </c>
-      <c r="B222" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="7">
-        <v>4</v>
-      </c>
-      <c r="B223" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="7">
-        <v>4</v>
-      </c>
-      <c r="B224" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="7">
-        <v>4</v>
-      </c>
-      <c r="B225" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="7">
-        <v>4</v>
-      </c>
-      <c r="B226" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="7">
-        <v>4</v>
-      </c>
-      <c r="B227" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="7">
-        <v>4</v>
-      </c>
-      <c r="B228" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="7">
-        <v>4</v>
-      </c>
-      <c r="B229" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="7">
-        <v>4</v>
-      </c>
-      <c r="B230" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="7">
-        <v>4</v>
-      </c>
-      <c r="B231" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="7">
-        <v>4</v>
-      </c>
-      <c r="B232" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="7">
-        <v>4</v>
-      </c>
-      <c r="B233" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="7">
-        <v>4</v>
-      </c>
-      <c r="B234" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="7">
-        <v>4</v>
-      </c>
-      <c r="B235" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="7">
-        <v>4</v>
-      </c>
-      <c r="B236" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="7">
-        <v>4</v>
-      </c>
-      <c r="B237" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="7">
-        <v>4</v>
-      </c>
-      <c r="B238" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="7">
-        <v>4</v>
-      </c>
-      <c r="B239" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="7">
-        <v>4</v>
-      </c>
-      <c r="B240" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="7">
-        <v>4</v>
-      </c>
-      <c r="B241" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="7">
-        <v>4</v>
-      </c>
-      <c r="B242" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="7">
-        <v>4</v>
-      </c>
-      <c r="B243" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="7">
-        <v>4</v>
-      </c>
-      <c r="B244" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="7">
-        <v>4</v>
-      </c>
-      <c r="B245" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="7">
-        <v>4</v>
-      </c>
-      <c r="B246" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="7">
-        <v>4</v>
-      </c>
-      <c r="B247" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="7">
-        <v>4</v>
-      </c>
-      <c r="B248" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="7">
-        <v>4</v>
-      </c>
-      <c r="B249" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="7">
-        <v>4</v>
-      </c>
-      <c r="B250" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="7">
-        <v>4</v>
-      </c>
-      <c r="B251" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="7">
-        <v>4</v>
-      </c>
-      <c r="B252" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="7">
-        <v>4</v>
-      </c>
-      <c r="B253" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="7">
-        <v>4</v>
-      </c>
-      <c r="B254" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="7">
-        <v>4</v>
-      </c>
-      <c r="B255" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="7">
-        <v>4</v>
-      </c>
-      <c r="B256" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="7">
-        <v>4</v>
-      </c>
-      <c r="B257" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="7">
-        <v>4</v>
-      </c>
-      <c r="B258" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="7">
-        <v>4</v>
-      </c>
-      <c r="B259" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="7">
-        <v>4</v>
-      </c>
-      <c r="B260" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="7">
-        <v>4</v>
-      </c>
-      <c r="B261" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="7">
-        <v>4</v>
-      </c>
-      <c r="B262" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="7">
-        <v>4</v>
-      </c>
-      <c r="B263" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="7">
-        <v>4</v>
-      </c>
-      <c r="B264" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="7">
-        <v>4</v>
-      </c>
-      <c r="B265" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="7">
-        <v>4</v>
-      </c>
-      <c r="B266" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="7">
-        <v>4</v>
-      </c>
-      <c r="B267" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="7">
-        <v>4</v>
-      </c>
-      <c r="B268" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="7">
-        <v>4</v>
-      </c>
-      <c r="B269" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="7">
-        <v>4</v>
-      </c>
-      <c r="B270" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="7">
-        <v>4</v>
-      </c>
-      <c r="B271" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="7">
-        <v>4</v>
-      </c>
-      <c r="B272" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="7">
-        <v>4</v>
-      </c>
-      <c r="B273" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="7">
-        <v>4</v>
-      </c>
-      <c r="B274" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="7">
-        <v>4</v>
-      </c>
-      <c r="B275" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="7">
-        <v>4</v>
-      </c>
-      <c r="B276" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="7">
-        <v>4</v>
-      </c>
-      <c r="B277" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="7">
-        <v>4</v>
-      </c>
-      <c r="B278" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="7">
-        <v>4</v>
-      </c>
-      <c r="B279" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="7">
-        <v>4</v>
-      </c>
-      <c r="B280" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="7">
-        <v>4</v>
-      </c>
-      <c r="B281" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="7">
-        <v>4</v>
-      </c>
-      <c r="B282" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="7">
-        <v>4</v>
-      </c>
-      <c r="B283" s="7">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88BA73BC-B40C-8A4A-A45C-7A54FEE2E88C}">
   <dimension ref="A1:E284"/>
   <sheetViews>
@@ -18140,7 +17482,7 @@
         <f>COUNTIF(A3:A284,"Strongly agree")</f>
         <v>184</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <f>D4/$D$9*100</f>
         <v>65.248226950354621</v>
       </c>
@@ -18156,7 +17498,7 @@
         <f>COUNTIF(A3:A284,"Somewhat agree")</f>
         <v>78</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
         <v>27.659574468085108</v>
       </c>
@@ -18172,7 +17514,7 @@
         <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
         <v>14</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>4.9645390070921991</v>
       </c>
@@ -18188,7 +17530,7 @@
         <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>0.70921985815602839</v>
       </c>
@@ -18204,7 +17546,7 @@
         <f>COUNTIF(A3:A281,"Strongly disagree")</f>
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>1.4184397163120568</v>
       </c>
@@ -19599,7 +18941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3CD1D9-B438-174C-9439-DFDB32EB4891}">
   <dimension ref="A1:E284"/>
   <sheetViews>
@@ -19638,7 +18980,7 @@
         <f>COUNTIF(A3:A284,"Strongly agree")</f>
         <v>198</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <f>D4/$D$9*100</f>
         <v>70.212765957446805</v>
       </c>
@@ -19654,7 +18996,7 @@
         <f>COUNTIF(A3:A284,"Somewhat agree")</f>
         <v>65</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
         <v>23.049645390070921</v>
       </c>
@@ -19670,7 +19012,7 @@
         <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
         <v>11</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>3.9007092198581561</v>
       </c>
@@ -19686,7 +19028,7 @@
         <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
         <v>4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>1.4184397163120568</v>
       </c>
@@ -19702,7 +19044,7 @@
         <f>COUNTIF(A3:A281,"Strongly disagree")</f>
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>1.4184397163120568</v>
       </c>
@@ -21097,12 +20439,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B760F9B-1D16-E84B-BE51-CF35DD8F788D}">
   <dimension ref="A1:J284"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21139,9 +20481,9 @@
         <f>COUNTIF(A3:A284,"Strongly agree")</f>
         <v>204</v>
       </c>
-      <c r="E4" s="5">
-        <f>D4/D9</f>
-        <v>0.72340425531914898</v>
+      <c r="E4" s="8">
+        <f>D4/$D$9*100</f>
+        <v>72.340425531914903</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -21155,9 +20497,9 @@
         <f>COUNTIF(A3:A284,"Somewhat agree")</f>
         <v>55</v>
       </c>
-      <c r="E5" s="5">
-        <f>D5/D9</f>
-        <v>0.19503546099290781</v>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
+        <v>19.50354609929078</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -21171,9 +20513,9 @@
         <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
         <v>14</v>
       </c>
-      <c r="E6" s="5">
-        <f>D6/D9</f>
-        <v>4.9645390070921988E-2</v>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9645390070921991</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -21187,9 +20529,9 @@
         <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
         <v>5</v>
       </c>
-      <c r="E7" s="5">
-        <f>D7/D9</f>
-        <v>1.7730496453900711E-2</v>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>1.773049645390071</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -21203,9 +20545,9 @@
         <f>COUNTIF(A3:A281,"Strongly disagree")</f>
         <v>4</v>
       </c>
-      <c r="E8" s="5">
-        <f>D8/D9</f>
-        <v>1.4184397163120567E-2</v>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>1.4184397163120568</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -22608,12 +21950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{167D99B0-1307-8143-9019-2C1B3216871F}">
   <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22647,7 +21989,7 @@
         <f>COUNTIF(A3:A284,"Strongly agree")</f>
         <v>17</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="6">
         <f>D4/$D$9*100</f>
         <v>6.0498220640569391</v>
       </c>
@@ -22663,7 +22005,7 @@
         <f>COUNTIF(A3:A284,"Somewhat agree")</f>
         <v>73</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="6">
         <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
         <v>25.978647686832741</v>
       </c>
@@ -22679,7 +22021,7 @@
         <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
         <v>62</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>22.064056939501782</v>
       </c>
@@ -22695,7 +22037,7 @@
         <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
         <v>63</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>22.419928825622776</v>
       </c>
@@ -22711,7 +22053,7 @@
         <f>COUNTIF(A3:A281,"Strongly disagree")</f>
         <v>66</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>23.487544483985765</v>
       </c>
@@ -24106,7 +23448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD7AB15-D6BE-A74C-B9A5-DB917556E840}">
   <dimension ref="A1:E284"/>
   <sheetViews>
@@ -24145,9 +23487,9 @@
         <f>COUNTIF(Sheet5!A3:A284,"Strongly agree")</f>
         <v>102</v>
       </c>
-      <c r="E4" s="5">
-        <f>D4/D9</f>
-        <v>0.36170212765957449</v>
+      <c r="E4" s="8">
+        <f>D4/$D$9*100</f>
+        <v>36.170212765957451</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -24161,9 +23503,9 @@
         <f>COUNTIF(A3:A284,"Somewhat agree")</f>
         <v>80</v>
       </c>
-      <c r="E5" s="5">
-        <f>D5/D9</f>
-        <v>0.28368794326241137</v>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
+        <v>28.368794326241137</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -24177,9 +23519,9 @@
         <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
         <v>74</v>
       </c>
-      <c r="E6" s="5">
-        <f>D6/D9</f>
-        <v>0.26241134751773049</v>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>26.24113475177305</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -24193,9 +23535,9 @@
         <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
         <v>7</v>
       </c>
-      <c r="E7" s="5">
-        <f>D7/D9</f>
-        <v>2.4822695035460994E-2</v>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4822695035460995</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -24209,9 +23551,9 @@
         <f>COUNTIF(A3:A281,"Strongly disagree")</f>
         <v>19</v>
       </c>
-      <c r="E8" s="5">
-        <f>D8/D9</f>
-        <v>6.7375886524822695E-2</v>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>6.7375886524822697</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -25604,7 +24946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D17E21F-B112-7944-B2CB-7E3541BDDBAC}">
   <dimension ref="A1:E284"/>
   <sheetViews>
@@ -25643,9 +24985,9 @@
         <f>COUNTIF(A3:A284,"Strongly agree")</f>
         <v>131</v>
       </c>
-      <c r="E4" s="5">
-        <f>D4/D9</f>
-        <v>0.46453900709219859</v>
+      <c r="E4" s="8">
+        <f>D4/$D$9*100</f>
+        <v>46.453900709219859</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -25659,9 +25001,9 @@
         <f>COUNTIF(A3:A284,"Somewhat agree")</f>
         <v>81</v>
       </c>
-      <c r="E5" s="5">
-        <f>D5/D9</f>
-        <v>0.28723404255319152</v>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E8" si="0">D5/$D$9*100</f>
+        <v>28.723404255319153</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -25675,9 +25017,9 @@
         <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
         <v>53</v>
       </c>
-      <c r="E6" s="5">
-        <f>D6/D9</f>
-        <v>0.18794326241134751</v>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>18.794326241134751</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -25691,9 +25033,9 @@
         <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
         <v>8</v>
       </c>
-      <c r="E7" s="5">
-        <f>D7/D9</f>
-        <v>2.8368794326241134E-2</v>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241136</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -25707,9 +25049,9 @@
         <f>COUNTIF(A3:A281,"Strongly disagree")</f>
         <v>9</v>
       </c>
-      <c r="E8" s="5">
-        <f>D8/D9</f>
-        <v>3.1914893617021274E-2</v>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>3.1914893617021276</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -27089,1504 +26431,6 @@
     <row r="283" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A284" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79047070-2632-4740-BE92-A40649D5BF64}">
-  <dimension ref="A1:E284"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <f>COUNTIF(A3:A284,"Strongly agree")</f>
-        <v>151</v>
-      </c>
-      <c r="E4" s="5">
-        <f>D4/D9</f>
-        <v>0.53736654804270467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <f>COUNTIF(A3:A284,"Somewhat agree")</f>
-        <v>59</v>
-      </c>
-      <c r="E5" s="5">
-        <f>D5/D9</f>
-        <v>0.20996441281138789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <f>COUNTIF((A3:A284),"Neither agree nor disagree")</f>
-        <v>50</v>
-      </c>
-      <c r="E6" s="5">
-        <f>D6/D9</f>
-        <v>0.17793594306049823</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <f>COUNTIF(A3:A284,"Somewhat disagree")</f>
-        <v>14</v>
-      </c>
-      <c r="E7" s="5">
-        <f>D7/D9</f>
-        <v>4.9822064056939501E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <f>COUNTIF(A3:A281,"Strongly disagree")</f>
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
-        <f>D8/D9</f>
-        <v>2.491103202846975E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <f>SUM(D4:D8)</f>
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A245" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A247" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A277" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A281" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A282" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:1" ht="34" x14ac:dyDescent="0.2">
@@ -28601,10 +26445,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002F3608213076CD42BCF3060DF967E12A" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="049255a9e535e9b21d2b015b67952ffe">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32c874fa-5265-4444-abb8-800acfe95df9" xmlns:ns3="21e49f69-05b5-4ddf-ad0f-5c6a2d765d37" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dcc0f7ef761595e19abc973ae8b7891d" ns2:_="" ns3:_="">
-    <xsd:import namespace="32c874fa-5265-4444-abb8-800acfe95df9"/>
-    <xsd:import namespace="21e49f69-05b5-4ddf-ad0f-5c6a2d765d37"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097C977C68203D340B8A2F2C9E75E159C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0ad6ff617554a6ce083a0179fe01288">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69b0918f-83d5-4dd8-b374-9164537f9303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8f8fa73818adc9b39c0bf4b71b95ad9" ns2:_="">
+    <xsd:import namespace="69b0918f-83d5-4dd8-b374-9164537f9303"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -28613,16 +26456,7 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
@@ -28631,7 +26465,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="32c874fa-5265-4444-abb8-800acfe95df9" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69b0918f-83d5-4dd8-b374-9164537f9303" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -28644,83 +26478,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="16" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="21e49f69-05b5-4ddf-ad0f-5c6a2d765d37" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -28839,14 +26604,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{784CA81D-89CB-4A9B-87D2-9CA654AF8FAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5B1775-9694-445E-8B64-23853B91C539}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="32c874fa-5265-4444-abb8-800acfe95df9"/>
-    <ds:schemaRef ds:uri="21e49f69-05b5-4ddf-ad0f-5c6a2d765d37"/>
+    <ds:schemaRef ds:uri="69b0918f-83d5-4dd8-b374-9164537f9303"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -28860,16 +26624,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F91A1EE-7033-491E-9A7C-F04F1DB1BC53}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="21e49f69-05b5-4ddf-ad0f-5c6a2d765d37"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="32c874fa-5265-4444-abb8-800acfe95df9"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="69b0918f-83d5-4dd8-b374-9164537f9303"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/end of day surveys_likert.xlsx
+++ b/Data/end of day surveys_likert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristadulany/Documents/GitHub/GGEE/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD213BF6-B09C-0344-9BE7-3FC9E43686A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19AA27-3D16-5248-8A83-90119D0F382C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5060" yWindow="500" windowWidth="20540" windowHeight="15500" xr2:uid="{11FFEB6C-3491-8E42-A6F2-76DCC35FCCFD}"/>
+    <workbookView xWindow="5060" yWindow="500" windowWidth="20540" windowHeight="15500" activeTab="1" xr2:uid="{11FFEB6C-3491-8E42-A6F2-76DCC35FCCFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Likert 2" sheetId="15" r:id="rId1"/>
@@ -9747,8 +9747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B0C6B7-7D42-A24A-AC55-0EBEC1AA97BE}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H3:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15856,8 +15856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860F5386-11B5-314F-A2AE-4317D306CC25}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26445,6 +26445,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097C977C68203D340B8A2F2C9E75E159C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0ad6ff617554a6ce083a0179fe01288">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69b0918f-83d5-4dd8-b374-9164537f9303" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8f8fa73818adc9b39c0bf4b71b95ad9" ns2:_="">
     <xsd:import namespace="69b0918f-83d5-4dd8-b374-9164537f9303"/>
@@ -26588,35 +26603,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5B1775-9694-445E-8B64-23853B91C539}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D88321D-1720-446D-AF2C-1729063FB8CE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="69b0918f-83d5-4dd8-b374-9164537f9303"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -26638,9 +26628,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D88321D-1720-446D-AF2C-1729063FB8CE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE5B1775-9694-445E-8B64-23853B91C539}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="69b0918f-83d5-4dd8-b374-9164537f9303"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>